--- a/uploaded_files/cleaned_data_all_accountsProfit and Loss Sample.xlsx
+++ b/uploaded_files/cleaned_data_all_accountsProfit and Loss Sample.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,172 +488,138 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Total Income</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>253070850.19</v>
-      </c>
-      <c r="C2" t="n">
-        <v>214318668.17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>38752182.02000001</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1808157093868339</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Key KPI</t>
-        </is>
-      </c>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Subtotals</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Total Cost of Sales</t>
+          <t xml:space="preserve"> Catering &amp; Décor (Menu Sale)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>193573813.19</v>
+        <v>146278941.69</v>
       </c>
       <c r="C3" t="n">
-        <v>163965086.84</v>
+        <v>112206319.35</v>
       </c>
       <c r="D3" t="n">
-        <v>29608726.34999999</v>
+        <v>34072622.34</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1805794570089955</v>
+        <v>0.3036604581397849</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Key KPI</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Subtotals</t>
-        </is>
-      </c>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>76.48996834075085</v>
+        <v>57.80157674428998</v>
       </c>
       <c r="I3" t="n">
-        <v>76.50527517740127</v>
+        <v>52.354897642886</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01530683665042432</v>
+        <v>-5.44667910140398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gross Profit</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>59497037</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50353581.32999998</v>
-      </c>
+          <t xml:space="preserve"> Euphoria</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>9143455.670000017</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1815850119989871</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Key KPI</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>23.51003165924915</v>
-      </c>
-      <c r="I4" t="n">
-        <v>23.49472482259873</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-0.01530683665042787</v>
-      </c>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Total Other Income(Loss)</t>
+          <t xml:space="preserve"> Euphoria Décor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49490941.5</v>
+        <v>11385000</v>
       </c>
       <c r="C5" t="n">
-        <v>36742147.21</v>
+        <v>15945039</v>
       </c>
       <c r="D5" t="n">
-        <v>12748794.29</v>
+        <v>-4560039</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3469801102568714</v>
+        <v>-0.2859848132074183</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Key KPI</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Subtotals</t>
-        </is>
-      </c>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>19.55616044394023</v>
+        <v>4.498740171557646</v>
       </c>
       <c r="I5" t="n">
-        <v>17.1436989244706</v>
+        <v>7.439874060505179</v>
       </c>
       <c r="J5" t="n">
-        <v>-2.412461519469627</v>
+        <v>2.941133888947533</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Total Expenses</t>
+          <t>Total 0802 Euphoria</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38352203.84</v>
+        <v>11385000</v>
       </c>
       <c r="C6" t="n">
-        <v>32726562.49</v>
+        <v>15945039</v>
       </c>
       <c r="D6" t="n">
-        <v>5625641.350000005</v>
+        <v>-4560039</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1718983272905301</v>
+        <v>-0.2859848132074183</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Key KPI</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -662,84 +628,3984 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>15.15472991504395</v>
+        <v>4.498740171557646</v>
       </c>
       <c r="I6" t="n">
-        <v>15.27004752756345</v>
+        <v>7.439874060505179</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1153176125194939</v>
+        <v>2.941133888947533</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Total Other Expenses</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>32615563.23</v>
-      </c>
-      <c r="C7" t="n">
-        <v>36875272.83</v>
-      </c>
+          <t xml:space="preserve"> Food Sale</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>-4259709.599999998</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.1155166937920117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Key KPI</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Subtotals</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>12.88791783230386</v>
-      </c>
-      <c r="I7" t="n">
-        <v>17.20581466134817</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.317896829044313</v>
-      </c>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Net Earnings</t>
+          <t xml:space="preserve"> Food/Kg/Box</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38020211.42999999</v>
+        <v>64720595.5</v>
       </c>
       <c r="C8" t="n">
-        <v>17493893.22</v>
+        <v>60833533.72</v>
       </c>
       <c r="D8" t="n">
-        <v>20526318.20999999</v>
+        <v>3887061.780000001</v>
       </c>
       <c r="E8" t="n">
-        <v>1.17334191719732</v>
+        <v>0.0638966954951372</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Key KPI</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
+        <v>25.57410126508415</v>
+      </c>
+      <c r="I8" t="n">
+        <v>28.38461728016439</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.810516015080243</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Additional Food &amp; Stations</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4496071</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4730969</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-234898</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.04965113912181627</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>1.776605640920102</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.207446061696941</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.430840420776839</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Total 0803 Food Sale</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>69216666.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>65564502.72</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3652163.780000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.05570337039841429</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>27.35070690600425</v>
+      </c>
+      <c r="I10" t="n">
+        <v>30.59206334186133</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.241356435857078</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Beverages</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6654160</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5038835</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1615325</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3205750932507216</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>2.629366438293546</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.351094770709913</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.2782716675836339</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Additional Item &amp; Setups</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17646132</v>
+      </c>
+      <c r="C12" t="n">
+        <v>13594652.1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4051479.9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.2980201236631867</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>6.972803065525593</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.343195492992038</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.6296075725335548</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Setup &amp; Services</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>750750</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1176120</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-425370</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.361672278338945</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>0.2966560547911202</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5487716072717885</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.2521155524806684</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kitchen Overhead Share</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1139200</v>
+      </c>
+      <c r="C14" t="n">
+        <v>793200</v>
+      </c>
+      <c r="D14" t="n">
+        <v>346000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.4362077660110943</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>0.4501506195378543</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.3701030837737498</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-0.08004753576410445</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Total Income</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>253070850.19</v>
+      </c>
+      <c r="C15" t="n">
+        <v>214318668.17</v>
+      </c>
+      <c r="D15" t="n">
+        <v>38752182.02000001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1808157093868339</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>100</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Supplies and materials - COS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Meat</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mutton</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>19838046</v>
+      </c>
+      <c r="C19" t="n">
+        <v>15768732</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4069314</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.258062220855805</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>7.838929685147868</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7.357610111449583</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.4813195736982845</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chicken</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>23248624</v>
+      </c>
+      <c r="C20" t="n">
+        <v>20023380.28</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3225243.719999999</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.1610738883694616</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>9.186606826722812</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9.342807348969353</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.1562005222465412</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Beef</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3800199</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2373584</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1426615</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6010383453882399</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>1.501634422592288</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.107502216333878</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.3941322062584096</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fish &amp; Prawns</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3522985</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2799593</v>
+      </c>
+      <c r="D22" t="n">
+        <v>723392</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.2583918448145855</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>1.392094347237155</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.306275847972017</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0.08581849926513874</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Total 090101 Meat</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>50409854</v>
+      </c>
+      <c r="C23" t="n">
+        <v>40965289.28</v>
+      </c>
+      <c r="D23" t="n">
+        <v>9444564.719999999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.2305504217349933</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>19.91926528170012</v>
+      </c>
+      <c r="I23" t="n">
+        <v>19.11419552472483</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.8050697569752892</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dry Stock</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Oil</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5497890</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6503007.76</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-1005117.76</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.1545619807164431</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>2.172470672095307</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.034270330031045</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.8617996579357388</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Flour</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2879966</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2284149</v>
+      </c>
+      <c r="D26" t="n">
+        <v>595817</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.2608485698612481</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>1.138007794195888</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.065772300427039</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-0.07223549376884986</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rice</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4189321</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3591436</v>
+      </c>
+      <c r="D27" t="n">
+        <v>597885</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.1664751926527439</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>1.655394525625828</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.675745762450909</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.02035123682508111</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sugar</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1063278</v>
+      </c>
+      <c r="C28" t="n">
+        <v>559813</v>
+      </c>
+      <c r="D28" t="n">
+        <v>503465</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.899344959834802</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>0.4201503251764138</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.2612058971717527</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0.1589444280046611</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Dry Stock</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>11537065</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7067364.78</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4469700.22</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.6324422693800729</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>4.558828087604015</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.297596443812392</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-1.261231643791623</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Total 090102 Dry Stock</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>25167520</v>
+      </c>
+      <c r="C30" t="n">
+        <v>20005770.54</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5161749.460000001</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.2580130292747025</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9.944851404697452</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9.334590733893137</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-0.6102606708043155</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Outsourced Food</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>5383087</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5725174</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-342087</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.05975137174870144</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>2.127106695993828</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.67133705564964</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.544230359655812</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dairy &amp; Bakery Items</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>11717227</v>
+      </c>
+      <c r="C32" t="n">
+        <v>8328739.74</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3388487.26</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.4068427356093612</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>4.630018428121202</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.886147581597302</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-0.7438708465239006</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vegetables &amp; Fruits</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6462248</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5714227</v>
+      </c>
+      <c r="D33" t="n">
+        <v>748021</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.130905020049081</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>2.553533129219856</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.666229241153837</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.1126961119339809</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Beverages &amp; Soft drinks</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3955092</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2776860.65</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1178231.35</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.4243033765486216</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>1.562839812262299</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.295669049136384</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.2671707631259155</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Consumables</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>5360259.4</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5022374</v>
+      </c>
+      <c r="D35" t="n">
+        <v>337885.4000000004</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.06727603320660715</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>2.11808645522613</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.343414151872294</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.2253276966461635</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Disposible Material</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3883894</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3188916</v>
+      </c>
+      <c r="D36" t="n">
+        <v>694978</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.2179354990849555</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>1.534706188833703</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.487931978688164</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-0.04677421014553995</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Total 0901 Supplies and materials - COS</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>112339181.4</v>
+      </c>
+      <c r="C37" t="n">
+        <v>91727351.21000001</v>
+      </c>
+      <c r="D37" t="n">
+        <v>20611830.19</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.2247075699679958</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>44.3904073960546</v>
+      </c>
+      <c r="I37" t="n">
+        <v>42.79951531671559</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1.590892079339007</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cost of labour-COS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Salaries- Operation Staff</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>31724243</v>
+      </c>
+      <c r="C39" t="n">
+        <v>31318401.33</v>
+      </c>
+      <c r="D39" t="n">
+        <v>405841.6700000018</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.01295856917227907</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>12.5357159768429</v>
+      </c>
+      <c r="I39" t="n">
+        <v>14.61300669578531</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.077290718942407</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Labour Out Sourced</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>5613330</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3075870</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2537460</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.8249568414789962</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>2.218086356364487</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.435185290326732</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-0.7829010660377547</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wages &amp; Allowance</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5509755</v>
+      </c>
+      <c r="C41" t="n">
+        <v>6357741</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-847986</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.1333785066110746</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>2.177159082471726</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.966489599010091</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.7893305165383646</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Total 0902 Cost of labour-COS</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>42847328</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40752012.33</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2095315.670000002</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.05141625039354227</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>16.93096141567912</v>
+      </c>
+      <c r="I42" t="n">
+        <v>19.01468158512213</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.083720169443016</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other costs of sales - COS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rents, rates &amp; taxes</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>10157791</v>
+      </c>
+      <c r="C44" t="n">
+        <v>8109391</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2048400</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.2525960334136065</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>4.013813124812184</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.783800575677122</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-0.2300125491350626</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Utilitites</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>11850509.79</v>
+      </c>
+      <c r="C45" t="n">
+        <v>7767374</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4083135.789999999</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.525677763166805</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>4.682684624129132</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.624217183842721</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1.05846744028641</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fuel &amp; Transporation</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>9800315</v>
+      </c>
+      <c r="C46" t="n">
+        <v>9703143.300000001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>97171.69999999925</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.01001445583102944</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>3.872557820326656</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4.527437288992183</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.654879468665527</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Repair &amp; maintinance</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1575561</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1775331</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-199770</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.1125254952456753</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>0.6225770367535824</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.828360410765425</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.2057833740118425</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Boarding &amp; Lodging - COS</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>703228</v>
+      </c>
+      <c r="C48" t="n">
+        <v>962071</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-258843</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.2690477106159525</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>0.2778779142173158</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.4488974330676945</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.1710195188503786</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Printing &amp; Stationary</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1737493</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1935156</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-197663</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.1021431863891076</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>0.686563860948635</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.9029339424902605</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.2163700815416255</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Laundry</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1679206</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1233257</v>
+      </c>
+      <c r="D50" t="n">
+        <v>445949</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.3616026505424255</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>0.6635319708845524</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.5754314407281436</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.08810053015640884</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Staff Uniform</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>883200</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>883200</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>0.348993176945078</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Total 0903 Other costs of sales - COS</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>38387303.79</v>
+      </c>
+      <c r="C52" t="n">
+        <v>31485723.3</v>
+      </c>
+      <c r="D52" t="n">
+        <v>6901580.489999998</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.2191971397398388</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>15.16859952901713</v>
+      </c>
+      <c r="I52" t="n">
+        <v>14.69107827556355</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.4775212534535864</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Total Cost of Sales</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>193573813.19</v>
+      </c>
+      <c r="C53" t="n">
+        <v>163965086.84</v>
+      </c>
+      <c r="D53" t="n">
+        <v>29608726.34999999</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.1805794570089955</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>76.48996834075085</v>
+      </c>
+      <c r="I53" t="n">
+        <v>76.50527517740127</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.01530683665042432</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>59497037</v>
+      </c>
+      <c r="C54" t="n">
+        <v>50353581.32999998</v>
+      </c>
+      <c r="D54" t="n">
+        <v>9143455.670000017</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.1815850119989871</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>23.51003165924915</v>
+      </c>
+      <c r="I54" t="n">
+        <v>23.49472482259873</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.01530683665042787</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Other Income(Loss)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Income</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Other Income(Loss)</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Outsourced Items</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>42288550</v>
+      </c>
+      <c r="C57" t="n">
+        <v>31788791</v>
+      </c>
+      <c r="D57" t="n">
+        <v>10499759</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.3302975253132464</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Other Income(Loss)</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>16.71016237873729</v>
+      </c>
+      <c r="I57" t="n">
+        <v>14.83248812221284</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-1.877674256524452</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>7202391.5</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4953356.21</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2249035.29</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.4540427125873913</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Other Income(Loss)</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>2.845998065202928</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.311210802257758</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-0.5347872629451693</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Total 15 Other Income</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>49490941.5</v>
+      </c>
+      <c r="C59" t="n">
+        <v>36742147.21</v>
+      </c>
+      <c r="D59" t="n">
+        <v>12748794.29</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.3469801102568714</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Other Income(Loss)</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>19.55616044394023</v>
+      </c>
+      <c r="I59" t="n">
+        <v>17.1436989244706</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-2.412461519469627</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Total Other Income(Loss)</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>49490941.5</v>
+      </c>
+      <c r="C60" t="n">
+        <v>36742147.21</v>
+      </c>
+      <c r="D60" t="n">
+        <v>12748794.29</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.3469801102568714</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>19.55616044394023</v>
+      </c>
+      <c r="I60" t="n">
+        <v>17.1436989244706</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-2.412461519469627</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Salaries &amp; Benefits</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Salaries &amp; Wages</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="n">
+        <v>8357523.67</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-8357523.67</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>3.899578016867256</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sales</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>4620050</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1499583</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3120467</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2.080889820703489</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>1.825595479104515</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.6996977971188743</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-1.125897681985641</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Marketing</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>403667</v>
+      </c>
+      <c r="C65" t="n">
+        <v>623333</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-219666</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.3524055360457412</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>0.1595075053871023</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.2908440059479864</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.1313365005608841</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Accounts &amp; Finance</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>7206153</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1516220</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5689933</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.752709369352732</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>2.847484407860399</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.7074605366609115</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-2.140023871199488</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Admin &amp; HR</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2322271</v>
+      </c>
+      <c r="C67" t="n">
+        <v>674833</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1647438</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2.441252872933007</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>0.9176367006537854</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.3148736438884152</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.6027630567653703</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Total 100101 Salaries &amp; Wages</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>14552141</v>
+      </c>
+      <c r="C68" t="n">
+        <v>12671492.67</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1880648.33</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.1484156901619389</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5.750224093005802</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5.912454000483444</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.1622299074776414</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other benefits (Direct &amp; indrect)</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1942145.75</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1024096.25</v>
+      </c>
+      <c r="D69" t="n">
+        <v>918049.5</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.8964484539417071</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="n">
+        <v>0.7674316297360522</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.4778380991000165</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-0.2895935306360357</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sales Commission</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sales Rep Commission</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2790522</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2068156</v>
+      </c>
+      <c r="D71" t="n">
+        <v>722366</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.3492802283773564</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="n">
+        <v>1.102664332104996</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.9649910657150573</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-0.1376732663899392</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Food Panda Commission</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="n">
+        <v>2672536.67</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-2672536.67</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>1.246992010924645</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Total 100103 Sales Commission</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2790522</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4740692.67</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-1950170.67</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.4113682969455179</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1.102664332104996</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2.211983076639702</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.109318744534706</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Total 1001 Salaries &amp; Benefits</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>19284808.75</v>
+      </c>
+      <c r="C74" t="n">
+        <v>18436281.59</v>
+      </c>
+      <c r="D74" t="n">
+        <v>848527.1600000001</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.04602485353989433</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7.62032005484685</v>
+      </c>
+      <c r="I74" t="n">
+        <v>8.602275176223163</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.9819551213763127</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rent, Rate &amp; Taxes</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Office Rent</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2153100</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1232583</v>
+      </c>
+      <c r="D76" t="n">
+        <v>920517</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.7468194839617291</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="n">
+        <v>0.8507894126816662</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.5751169557578163</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-0.2756724569238499</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Token Tax</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="n">
+        <v>27500</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-27500</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>0.01283136006527751</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Toll Tax</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>4370</v>
+      </c>
+      <c r="C78" t="n">
+        <v>6830</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-2460</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-0.3601756954612006</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="n">
+        <v>0.001726789156759501</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.003186843245303468</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.001460054088543968</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Total 1002 Rent, Rate &amp; Taxes</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2157470</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1266913</v>
+      </c>
+      <c r="D79" t="n">
+        <v>890557</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.7029346135054262</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>0.8525162018384256</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.5911351590683973</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-0.2613810427700283</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Utilities</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Elecricity Charges</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1208835</v>
+      </c>
+      <c r="C81" t="n">
+        <v>527351</v>
+      </c>
+      <c r="D81" t="n">
+        <v>681484</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.292277818758284</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="n">
+        <v>0.4776666293618698</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.2460592931557876</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-0.2316073362060821</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Water Charges</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>44420</v>
+      </c>
+      <c r="C82" t="n">
+        <v>61440</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-17020</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-0.2770182291666667</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="n">
+        <v>0.01755239687488719</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.02866759136038728</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01111519448550009</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Total 1003 Utilities</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1253255</v>
+      </c>
+      <c r="C83" t="n">
+        <v>588791</v>
+      </c>
+      <c r="D83" t="n">
+        <v>664464</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.12852268461984</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>0.495219026236757</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.2747268845161749</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-0.2204921417205821</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Legal &amp; Professional Charges</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Filing Fee</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>224000</v>
+      </c>
+      <c r="C85" t="n">
+        <v>224000</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="n">
+        <v>0.08851276226867921</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.1045172601680786</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01600449789939941</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Professional Services</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>3714037.5</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3268620</v>
+      </c>
+      <c r="D86" t="n">
+        <v>445417.5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.1362708115351433</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="n">
+        <v>1.467588028100266</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1.525121459511541</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.05753343141127476</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Registration Fee</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>30770</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>30770</v>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="n">
+        <v>0.01215865042413955</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fee &amp; Subcription</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2964370.47</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2500856.29</v>
+      </c>
+      <c r="D88" t="n">
+        <v>463514.1800000002</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.1853421893346779</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="n">
+        <v>1.171359904854477</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1.16688681921833</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-0.004473085636147012</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Total 1004 Legal &amp; Professional Charges</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>6933177.970000001</v>
+      </c>
+      <c r="C89" t="n">
+        <v>5993476.29</v>
+      </c>
+      <c r="D89" t="n">
+        <v>939701.6800000006</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.1567874192758341</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2.739619345647562</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2.796525538897949</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.05690619325038693</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Communication Charges</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Internet Charges</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>167870</v>
+      </c>
+      <c r="C91" t="n">
+        <v>162062</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5808</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.03583813602201626</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="n">
+        <v>0.06633320268769276</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.07561730454178195</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.009284101854089191</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mobile Charges</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>554838.21</v>
+      </c>
+      <c r="C92" t="n">
+        <v>352593</v>
+      </c>
+      <c r="D92" t="n">
+        <v>202245.21</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.5735939454271638</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="n">
+        <v>0.2192422436576318</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.1645180996180507</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-0.05472414403958109</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Postage &amp; Courier</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>7899</v>
+      </c>
+      <c r="C93" t="n">
+        <v>20496</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-12597</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-0.6146077283372365</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="n">
+        <v>0.003121260308751326</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.009563329305379193</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.006442068996627867</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Telephone Bill</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>36070</v>
+      </c>
+      <c r="C94" t="n">
+        <v>30280</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5790</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.1912153236459709</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="n">
+        <v>0.01425292560281812</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.0141284939191492</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-0.0001244316836689196</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Total 1005 Communication Charges</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>766677.21</v>
+      </c>
+      <c r="C95" t="n">
+        <v>565431</v>
+      </c>
+      <c r="D95" t="n">
+        <v>201246.21</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.3559164778726316</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>0.3029496322568939</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.263827227384361</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-0.03912240487253288</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Repair &amp; Maintenance</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equipment Repair</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>229305</v>
+      </c>
+      <c r="C97" t="n">
+        <v>36100</v>
+      </c>
+      <c r="D97" t="n">
+        <v>193205</v>
+      </c>
+      <c r="E97" t="n">
+        <v>5.351939058171745</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="n">
+        <v>0.09060901317865841</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.01684407630387338</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-0.07376493687478503</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Office Repair</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>252804</v>
+      </c>
+      <c r="C98" t="n">
+        <v>179125</v>
+      </c>
+      <c r="D98" t="n">
+        <v>73679</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.4113272854152129</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="n">
+        <v>0.09989455514540706</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.08357881351610305</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-0.01631574162930401</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vehicles Repair</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>415596</v>
+      </c>
+      <c r="C99" t="n">
+        <v>207604</v>
+      </c>
+      <c r="D99" t="n">
+        <v>207992</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.001868942794937</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="n">
+        <v>0.1642212051241697</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.09686696999970444</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-0.06735423512446521</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Total 1006 Repair &amp; Maintenance</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>897705</v>
+      </c>
+      <c r="C100" t="n">
+        <v>422829</v>
+      </c>
+      <c r="D100" t="n">
+        <v>474876</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.123092313914136</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>0.3547247734482351</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.1972898598196809</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-0.1574349136285542</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Travelling &amp; Conveyance</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fuel Charges</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>3322504</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2530438</v>
+      </c>
+      <c r="D102" t="n">
+        <v>792066</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.3130153752038184</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="n">
+        <v>1.312875029860427</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1.180689494576752</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-0.1321855352836752</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Local Traveling</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>32530</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-32530</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.01517833246994463</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.01517833246994463</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Total 1007 Travelling &amp; Conveyance</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>3322504</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2562968</v>
+      </c>
+      <c r="D104" t="n">
+        <v>759536</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.2963501690227892</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1.312875029860427</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1.195867827046697</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-0.1170072028137303</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Office Supplies &amp; Stationary</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Office Supplies</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>337506</v>
+      </c>
+      <c r="C106" t="n">
+        <v>183168</v>
+      </c>
+      <c r="D106" t="n">
+        <v>154338</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.8426035115303984</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="n">
+        <v>0.1333642336707716</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.08546525674315458</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-0.04789897692761705</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stationary Expense</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>326125</v>
+      </c>
+      <c r="C107" t="n">
+        <v>267854</v>
+      </c>
+      <c r="D107" t="n">
+        <v>58271</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.2175476192253989</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="n">
+        <v>0.1288670740842545</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.1249793134154488</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-0.003887760668805695</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Total 1008 Office Supplies &amp; Stationary</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>663631</v>
+      </c>
+      <c r="C108" t="n">
+        <v>451022</v>
+      </c>
+      <c r="D108" t="n">
+        <v>212609</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.4713938566189676</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>0.2622313077550261</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.2104445701586034</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-0.05178673759642272</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Advertisement &amp; Publicity</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Agency Fee</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1040000</v>
+      </c>
+      <c r="C110" t="n">
+        <v>783750</v>
+      </c>
+      <c r="D110" t="n">
+        <v>256250</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.3269537480063796</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="n">
+        <v>0.4109521105331535</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.365693761860409</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-0.04525834867274448</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ad Spend</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1720191.52</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1249578.61</v>
+      </c>
+      <c r="D111" t="n">
+        <v>470612.9099999999</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.3766172902079365</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="n">
+        <v>0.6797272458319551</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.5830470209010539</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-0.09668022493090123</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ad Production</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C112" t="n">
+        <v>94446</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-54446</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-0.5764775638989476</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="n">
+        <v>0.01580585040512129</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.04406802300818908</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.02826217260306779</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Total 1009 Advertisement &amp; Publicity</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>2800191.52</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2127774.61</v>
+      </c>
+      <c r="D113" t="n">
+        <v>672416.9099999997</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.3160188616030152</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1.10648520677023</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.9928088057696521</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-0.1136764010005776</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Food &amp; Entertainment</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Office Entertainment</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>95212.39</v>
+      </c>
+      <c r="C115" t="n">
+        <v>135435</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-40222.61</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-0.2969882969690257</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="n">
+        <v>0.03762281982635165</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.06319328183421306</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.02557046200786142</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Staff Food</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>177571</v>
+      </c>
+      <c r="C116" t="n">
+        <v>175641</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1930</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.01098832277201792</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>0.0701665165571948</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.08195319684456026</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.01178668028736546</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Total 1010 Food &amp; Entertainment</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>272783.39</v>
+      </c>
+      <c r="C117" t="n">
+        <v>311076</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-38292.60999999999</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-0.1230972816932196</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>0.1077893363835464</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.1451464786787733</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.03735714229522687</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Total Expenses</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>38352203.84</v>
+      </c>
+      <c r="C118" t="n">
+        <v>32726562.49</v>
+      </c>
+      <c r="D118" t="n">
+        <v>5625641.350000005</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.1718983272905301</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>15.15472991504395</v>
+      </c>
+      <c r="I118" t="n">
+        <v>15.27004752756345</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.1153176125194939</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Other Expenses</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Expenses</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Other Expenses</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Outsourced Items Rental</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>21253146</v>
+      </c>
+      <c r="C121" t="n">
+        <v>26443113</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-5189967</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-0.1962691382062316</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Other Expenses</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="n">
+        <v>8.398101157855047</v>
+      </c>
+      <c r="I121" t="n">
+        <v>12.33822196908438</v>
+      </c>
+      <c r="J121" t="n">
+        <v>3.940120811229336</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bank Service Charges</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>234608.23</v>
+      </c>
+      <c r="C122" t="n">
+        <v>66571.87</v>
+      </c>
+      <c r="D122" t="n">
+        <v>168036.36</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2.52413459318478</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Other Expenses</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="n">
+        <v>0.0927045646797572</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.0310620957886853</v>
+      </c>
+      <c r="J122" t="n">
+        <v>-0.0616424688910719</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other expenses-Other</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>33193</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4585273.96</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-4552080.96</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-0.9927609559887671</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Other Expenses</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="n">
+        <v>0.01311608981242977</v>
+      </c>
+      <c r="I123" t="n">
+        <v>2.139465497407304</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.126349407594875</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Euphoria Outsourced Items Rental</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>11094616</v>
+      </c>
+      <c r="C124" t="n">
+        <v>5780314</v>
+      </c>
+      <c r="D124" t="n">
+        <v>5314302</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.9193794662366093</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Other Expenses</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="n">
+        <v>4.383996019956628</v>
+      </c>
+      <c r="I124" t="n">
+        <v>2.6970650990678</v>
+      </c>
+      <c r="J124" t="n">
+        <v>-1.686930920888828</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Total 16 Other Expenses</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>32615563.23</v>
+      </c>
+      <c r="C125" t="n">
+        <v>36875272.83</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-4259709.599999998</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-0.1155166937920117</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Other Expenses</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>12.88791783230386</v>
+      </c>
+      <c r="I125" t="n">
+        <v>17.20581466134817</v>
+      </c>
+      <c r="J125" t="n">
+        <v>4.317896829044313</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Total Other Expenses</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>32615563.23</v>
+      </c>
+      <c r="C126" t="n">
+        <v>36875272.83</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-4259709.599999998</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-0.1155166937920117</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>12.88791783230386</v>
+      </c>
+      <c r="I126" t="n">
+        <v>17.20581466134817</v>
+      </c>
+      <c r="J126" t="n">
+        <v>4.317896829044313</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Net Earnings</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>38020211.42999999</v>
+      </c>
+      <c r="C127" t="n">
+        <v>17493893.22</v>
+      </c>
+      <c r="D127" t="n">
+        <v>20526318.20999999</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.17334191719732</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="n">
         <v>15.02354435584156</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I127" t="n">
         <v>8.162561558157707</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J127" t="n">
         <v>-6.860982797683851</v>
       </c>
     </row>
